--- a/data/trans_dic/P26-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P26-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1922754193525463</v>
+        <v>0.1950989415553704</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2305774004081041</v>
+        <v>0.2321377304473322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1907471963504124</v>
+        <v>0.1935763466031052</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09176105373358037</v>
+        <v>0.0900491538571786</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3001979383797279</v>
+        <v>0.2991809922436248</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3183741479651726</v>
+        <v>0.3163744258180795</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1834661567769916</v>
+        <v>0.1832085721561572</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09077514894408513</v>
+        <v>0.09065644861352613</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2608442590428833</v>
+        <v>0.2581847716362114</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2882732442450712</v>
+        <v>0.2878154970078317</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.194063604441412</v>
+        <v>0.1963735188790978</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09678016474677104</v>
+        <v>0.09605611567053059</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2466512139152733</v>
+        <v>0.248907884342483</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2901070956856352</v>
+        <v>0.2926676812758033</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2562962451294424</v>
+        <v>0.2546304044455416</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1523519693817194</v>
+        <v>0.1526090047953606</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3534871653884202</v>
+        <v>0.3577397557929537</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3708961344879357</v>
+        <v>0.3729985958527518</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2395907304322007</v>
+        <v>0.2406738164855523</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.131511785937386</v>
+        <v>0.1310821016807537</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2996302532968472</v>
+        <v>0.2993081299088702</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3299962611136644</v>
+        <v>0.3276559090959705</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2365721132332048</v>
+        <v>0.2375840077716811</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.133066399012211</v>
+        <v>0.1318627945635138</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3056879030366866</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1550957629706025</v>
+        <v>0.1550957629706026</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3790484308850011</v>
@@ -833,7 +833,7 @@
         <v>0.2903537502459912</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1364425431852877</v>
+        <v>0.1364425431852878</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3106764596426975</v>
+        <v>0.3098469882364349</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3495514602601852</v>
+        <v>0.3474890293096669</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2564508365831448</v>
+        <v>0.2563362518322093</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1027018017812946</v>
+        <v>0.1005918272951141</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4020290978125379</v>
+        <v>0.4017056547060948</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4208638084176514</v>
+        <v>0.4194153687002254</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2849748076640847</v>
+        <v>0.2835246522811448</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1408466651552548</v>
+        <v>0.1400697573927783</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3617143722269515</v>
+        <v>0.3620576762573315</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3888553529993153</v>
+        <v>0.3893563720195925</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2768724958625532</v>
+        <v>0.2758326257503247</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1255267089806255</v>
+        <v>0.1259671124197602</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3589097805589456</v>
+        <v>0.357875460930704</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3961975875189311</v>
+        <v>0.3941826626871653</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2966115519517019</v>
+        <v>0.2971942459402377</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1404997066303019</v>
+        <v>0.1379181494903401</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4506350615495598</v>
+        <v>0.4516282421630542</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4687375375633389</v>
+        <v>0.4691343506039829</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3291478893546919</v>
+        <v>0.326920145379678</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1715964879728098</v>
+        <v>0.1716808394147346</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.396700273317639</v>
+        <v>0.3970980527990153</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4218051775077272</v>
+        <v>0.4226141727180047</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3059507401579439</v>
+        <v>0.3053959339529363</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1494033028731967</v>
+        <v>0.1480665346003906</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2233852816206666</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1101457052791714</v>
+        <v>0.1101457052791715</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2722037313752095</v>
@@ -969,7 +969,7 @@
         <v>0.212439158286239</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1060381921088738</v>
+        <v>0.1060381921088737</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2191778653631105</v>
+        <v>0.2197088767449</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2562439435209719</v>
+        <v>0.2513183892618491</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1663117987598103</v>
+        <v>0.1639715441095516</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.076655149430884</v>
+        <v>0.07330303914833659</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2445613571149864</v>
+        <v>0.2475410677237755</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2451799571308446</v>
+        <v>0.2448032234220189</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1884191456050853</v>
+        <v>0.1861903291738342</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09028502485135899</v>
+        <v>0.08962784845814724</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2431808099872327</v>
+        <v>0.2451204948899181</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2625049368282088</v>
+        <v>0.2606256242716707</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1857221419457922</v>
+        <v>0.1878077962325962</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0896220261070419</v>
+        <v>0.09049959232977106</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3025630586220025</v>
+        <v>0.3010493915835536</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.343514473370296</v>
+        <v>0.3406869234258226</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2414482685552154</v>
+        <v>0.2388905702191566</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1347018077459351</v>
+        <v>0.1365346336403839</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3329378589438867</v>
+        <v>0.3411820334868841</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3442744394569902</v>
+        <v>0.3385470471318786</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2658539193478736</v>
+        <v>0.2626692432742701</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1364949562531611</v>
+        <v>0.1338140220360646</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3000628446012125</v>
+        <v>0.3041128650907531</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3271406181215218</v>
+        <v>0.3264927108620035</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2413925683076484</v>
+        <v>0.2393938947003861</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1256928527814882</v>
+        <v>0.1253641463784592</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.2526296993766096</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1146929862962366</v>
+        <v>0.1146929862962367</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3708556685110074</v>
@@ -1105,7 +1105,7 @@
         <v>0.2603688369026309</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1261786760203092</v>
+        <v>0.1261786760203091</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2705848050544009</v>
+        <v>0.2707574411682034</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3111574772201395</v>
+        <v>0.3129102596206811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2370787852502136</v>
+        <v>0.2361169627090503</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.10169209239699</v>
+        <v>0.1019526351446754</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3528210550823786</v>
+        <v>0.3534214360958988</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3711828227225712</v>
+        <v>0.3703127347358384</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2532537603346733</v>
+        <v>0.2524389360428868</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1255596816823791</v>
+        <v>0.1255496995085699</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3175317697436003</v>
+        <v>0.3175145461258579</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3467261784510678</v>
+        <v>0.3462065316828243</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2487515031789061</v>
+        <v>0.2505822871174012</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1174905356390887</v>
+        <v>0.116316064934713</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3034906767651023</v>
+        <v>0.3052467026159444</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3439501487812914</v>
+        <v>0.3478882615024059</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2686456164309275</v>
+        <v>0.2675839273945419</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1290103971507798</v>
+        <v>0.1293581859145577</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3886787421808803</v>
+        <v>0.3874104871631546</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4072129865787417</v>
+        <v>0.4043904201670492</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2835974795090917</v>
+        <v>0.2835840281065549</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1483661124538362</v>
+        <v>0.1487489314162933</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3411137268497172</v>
+        <v>0.3410233680397469</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3712019906441391</v>
+        <v>0.3703096426497645</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2713642857607284</v>
+        <v>0.2723712794354925</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1355927943620524</v>
+        <v>0.1344513030850022</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>179405</v>
+        <v>182040</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>213597</v>
+        <v>215042</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>129294</v>
+        <v>131212</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>44703</v>
+        <v>43869</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>340414</v>
+        <v>339260</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>388728</v>
+        <v>386286</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>161176</v>
+        <v>160950</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>61382</v>
+        <v>61301</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>539173</v>
+        <v>533675</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>619019</v>
+        <v>618036</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>302029</v>
+        <v>305624</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>112591</v>
+        <v>111748</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>230142</v>
+        <v>232247</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>268742</v>
+        <v>271114</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>173726</v>
+        <v>172596</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>74222</v>
+        <v>74347</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>400842</v>
+        <v>405664</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>452856</v>
+        <v>455423</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>210482</v>
+        <v>211434</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>88927</v>
+        <v>88637</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>619344</v>
+        <v>618679</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>708612</v>
+        <v>703587</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>368186</v>
+        <v>369761</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>154805</v>
+        <v>153405</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>497891</v>
+        <v>496561</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>663014</v>
+        <v>659102</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>503871</v>
+        <v>503645</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>209418</v>
+        <v>205116</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>610313</v>
+        <v>609822</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>717726</v>
+        <v>715256</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>537936</v>
+        <v>535198</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>286527</v>
+        <v>284947</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1128796</v>
+        <v>1129867</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1400704</v>
+        <v>1402509</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1066636</v>
+        <v>1062630</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>511322</v>
+        <v>513116</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>575190</v>
+        <v>573532</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>751490</v>
+        <v>747668</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>582778</v>
+        <v>583922</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>286492</v>
+        <v>281228</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>684101</v>
+        <v>685608</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>799369</v>
+        <v>800045</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>621319</v>
+        <v>617114</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>349082</v>
+        <v>349254</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1237976</v>
+        <v>1239217</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1519393</v>
+        <v>1522307</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1178658</v>
+        <v>1176521</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>608581</v>
+        <v>603136</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>113139</v>
+        <v>113414</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>115404</v>
+        <v>113186</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>81758</v>
+        <v>80607</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>50832</v>
+        <v>48609</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>107690</v>
+        <v>109002</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>106008</v>
+        <v>105846</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>95369</v>
+        <v>94241</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>62644</v>
+        <v>62188</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>232612</v>
+        <v>234468</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>231723</v>
+        <v>230064</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>185304</v>
+        <v>187385</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>121615</v>
+        <v>122806</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>156183</v>
+        <v>155401</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>154708</v>
+        <v>153434</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>118695</v>
+        <v>117437</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>89324</v>
+        <v>90539</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>146606</v>
+        <v>150236</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>148854</v>
+        <v>146378</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>134563</v>
+        <v>132951</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>94707</v>
+        <v>92847</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>287022</v>
+        <v>290896</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>288779</v>
+        <v>288208</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>240849</v>
+        <v>238855</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>170562</v>
+        <v>170116</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>825789</v>
+        <v>826315</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1018568</v>
+        <v>1024305</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>743054</v>
+        <v>740040</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>324335</v>
+        <v>325166</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1091059</v>
+        <v>1092916</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1246697</v>
+        <v>1243774</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>828728</v>
+        <v>826061</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>427451</v>
+        <v>427417</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1950996</v>
+        <v>1950890</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2299555</v>
+        <v>2296109</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1593634</v>
+        <v>1605363</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>774703</v>
+        <v>766959</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>926213</v>
+        <v>931572</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1125914</v>
+        <v>1138805</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>841992</v>
+        <v>838664</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>411464</v>
+        <v>412573</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1201945</v>
+        <v>1198023</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1367712</v>
+        <v>1358231</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>928022</v>
+        <v>927978</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>505092</v>
+        <v>506395</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2095889</v>
+        <v>2095334</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>2461884</v>
+        <v>2455965</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1738504</v>
+        <v>1744955</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>894065</v>
+        <v>886538</v>
       </c>
     </row>
     <row r="20">
